--- a/testData/WebForm/TC001_WF_RRUserY_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC001_WF_RRUserY_NoCondition_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -213,9 +213,6 @@
     <t>9840064331</t>
   </si>
   <si>
-    <t>9840069704</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -225,25 +222,7 @@
     <t>WebFormId</t>
   </si>
   <si>
-    <t>9840097758</t>
-  </si>
-  <si>
-    <t>9840011348</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9840053686</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>9840010502</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>9840047945</t>
@@ -253,7 +232,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,128 +573,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="17" max="17" customWidth="true" width="10.54296875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="20" max="20" customWidth="true" width="10.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="23" max="23" customWidth="true" width="10.54296875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="27" max="27" customWidth="true" width="17.81640625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="23.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.54296875" customWidth="1"/>
+    <col min="21" max="21" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" customWidth="1"/>
+    <col min="24" max="24" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.81640625" customWidth="1"/>
+    <col min="28" max="28" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>33</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -726,12 +704,12 @@
         <v>54</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="AF1" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -745,80 +723,80 @@
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
         <v>57</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s" s="0">
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="S2" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s" s="0">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s" s="0">
+      <c r="V2" t="s">
         <v>57</v>
       </c>
-      <c r="T2" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s" s="0">
+      <c r="W2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s">
         <v>18</v>
       </c>
-      <c r="V2" t="s" s="0">
+      <c r="Y2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="X2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="Y2" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="Z2" t="s" s="0">
+      <c r="Z2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
         <v>65</v>
-      </c>
-      <c r="AA2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s" s="0">
-        <v>66</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>55</v>
@@ -840,35 +818,35 @@
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>1122334455</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="M3" t="s" s="0">
-        <v>57</v>
+      <c r="M3" t="s">
+        <v>18</v>
       </c>
       <c r="AC3" s="4" t="s">
         <v>55</v>
@@ -888,34 +866,34 @@
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>73</v>
+      <c r="F4" t="s">
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>50</v>
       </c>
-      <c r="M4" t="s" s="0">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
       <c r="AC4" s="4" t="s">
@@ -936,35 +914,35 @@
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>1243213423</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" t="s" s="0">
-        <v>57</v>
+      <c r="M5" t="s">
+        <v>18</v>
       </c>
       <c r="AC5" s="4" t="s">
         <v>55</v>
@@ -984,35 +962,35 @@
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>4567547656</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>52</v>
       </c>
-      <c r="M6" t="s" s="0">
-        <v>57</v>
+      <c r="M6" t="s">
+        <v>18</v>
       </c>
       <c r="AC6" s="4" t="s">
         <v>55</v>
@@ -1032,34 +1010,34 @@
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>75</v>
+      <c r="F7" t="s">
+        <v>68</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>48</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>18</v>
       </c>
       <c r="AC7" s="4" t="s">
@@ -1080,35 +1058,35 @@
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>14</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>49</v>
       </c>
-      <c r="M8" t="s" s="0">
-        <v>57</v>
+      <c r="M8" t="s">
+        <v>18</v>
       </c>
       <c r="AC8" s="4" t="s">
         <v>55</v>
@@ -1128,35 +1106,35 @@
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>7890870980</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>50</v>
       </c>
-      <c r="M9" t="s" s="0">
-        <v>57</v>
+      <c r="M9" t="s">
+        <v>18</v>
       </c>
       <c r="AC9" s="4" t="s">
         <v>55</v>
@@ -1176,35 +1154,35 @@
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>7890870981</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>14</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>51</v>
       </c>
-      <c r="M10" t="s" s="0">
-        <v>57</v>
+      <c r="M10" t="s">
+        <v>18</v>
       </c>
       <c r="AC10" s="4" t="s">
         <v>55</v>

--- a/testData/WebForm/TC001_WF_RRUserY_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC001_WF_RRUserY_NoCondition_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -226,12 +226,49 @@
   </si>
   <si>
     <t>9840047945</t>
+  </si>
+  <si>
+    <t>9840030527</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9840064204</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9840051485</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9840024554</t>
+  </si>
+  <si>
+    <t>9840093071</t>
+  </si>
+  <si>
+    <t>9840017603</t>
+  </si>
+  <si>
+    <t>9840090648</t>
+  </si>
+  <si>
+    <t>9840024986</t>
+  </si>
+  <si>
+    <t>9840044452</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,122 +616,122 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.54296875" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.54296875" customWidth="1"/>
-    <col min="21" max="21" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.54296875" customWidth="1"/>
-    <col min="24" max="24" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.81640625" customWidth="1"/>
-    <col min="28" max="28" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="17" max="17" customWidth="true" width="10.54296875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="20" max="20" customWidth="true" width="10.54296875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="23" max="23" customWidth="true" width="10.54296875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="27" max="27" customWidth="true" width="17.81640625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -706,10 +743,10 @@
       <c r="AE1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -723,79 +760,79 @@
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>62</v>
+      <c r="F2" t="s" s="0">
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="Z2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="Z2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AA2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" t="s" s="0">
         <v>65</v>
       </c>
       <c r="AC2" s="4" t="s">
@@ -818,34 +855,34 @@
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
-        <v>1122334455</v>
+      <c r="F3" t="s" s="0">
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC3" s="4" t="s">
@@ -866,34 +903,34 @@
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>67</v>
+      <c r="F4" t="s" s="0">
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC4" s="4" t="s">
@@ -914,34 +951,34 @@
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>1243213423</v>
+      <c r="F5" t="s" s="0">
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC5" s="4" t="s">
@@ -962,34 +999,34 @@
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
-        <v>4567547656</v>
+      <c r="F6" t="s" s="0">
+        <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC6" s="4" t="s">
@@ -1010,34 +1047,34 @@
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>68</v>
+      <c r="F7" t="s" s="0">
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC7" s="4" t="s">
@@ -1058,34 +1095,34 @@
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>63</v>
+      <c r="F8" t="s" s="0">
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC8" s="4" t="s">
@@ -1106,34 +1143,34 @@
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9">
-        <v>7890870980</v>
+      <c r="F9" t="s" s="0">
+        <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC9" s="4" t="s">
@@ -1154,34 +1191,34 @@
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10">
-        <v>7890870981</v>
+      <c r="F10" t="s" s="0">
+        <v>80</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC10" s="4" t="s">

--- a/testData/WebForm/TC001_WF_RRUserY_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC001_WF_RRUserY_NoCondition_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -262,6 +262,33 @@
   </si>
   <si>
     <t>9840044452</t>
+  </si>
+  <si>
+    <t>9840020987</t>
+  </si>
+  <si>
+    <t>9840004756</t>
+  </si>
+  <si>
+    <t>9840007874</t>
+  </si>
+  <si>
+    <t>9840095170</t>
+  </si>
+  <si>
+    <t>9840071341</t>
+  </si>
+  <si>
+    <t>9840086849</t>
+  </si>
+  <si>
+    <t>9840021753</t>
+  </si>
+  <si>
+    <t>9840059614</t>
+  </si>
+  <si>
+    <t>9840068297</t>
   </si>
 </sst>
 </file>
@@ -767,7 +794,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -827,7 +854,7 @@
         <v>57</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="0">
         <v>32</v>
@@ -862,7 +889,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -910,7 +937,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -958,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1006,7 +1033,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1054,7 +1081,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1102,7 +1129,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1150,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1198,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>

--- a/testData/WebForm/TC001_WF_RRUserY_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC001_WF_RRUserY_NoCondition_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="96">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Ghosh</t>
   </si>
   <si>
-    <t>WF_AllValidUser_Condition_Test</t>
-  </si>
-  <si>
     <t>Julia@rsoft.in</t>
   </si>
   <si>
@@ -207,88 +204,109 @@
     <t>Andhra Pradesh</t>
   </si>
   <si>
-    <t>9840091144</t>
-  </si>
-  <si>
-    <t>9840064331</t>
+    <t>WF_RRUserY_NoCondition</t>
+  </si>
+  <si>
+    <t>WebFormId</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9840020987</t>
+  </si>
+  <si>
+    <t>9840004756</t>
+  </si>
+  <si>
+    <t>9840007874</t>
+  </si>
+  <si>
+    <t>9840095170</t>
+  </si>
+  <si>
+    <t>9840071341</t>
+  </si>
+  <si>
+    <t>9840086849</t>
+  </si>
+  <si>
+    <t>9840021753</t>
+  </si>
+  <si>
+    <t>9840059614</t>
+  </si>
+  <si>
+    <t>9840068297</t>
+  </si>
+  <si>
+    <t>TC001_WF_RRUserY_NoCondition_Test</t>
+  </si>
+  <si>
+    <t>9840000400</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9840022021</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>WF_RRUserY_NoCondition</t>
-  </si>
-  <si>
-    <t>WebFormId</t>
-  </si>
-  <si>
-    <t>9840010502</t>
-  </si>
-  <si>
-    <t>9840047945</t>
-  </si>
-  <si>
-    <t>9840030527</t>
+    <t>9840022756</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>9840064204</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>9840051485</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9840024554</t>
-  </si>
-  <si>
-    <t>9840093071</t>
-  </si>
-  <si>
-    <t>9840017603</t>
-  </si>
-  <si>
-    <t>9840090648</t>
-  </si>
-  <si>
-    <t>9840024986</t>
-  </si>
-  <si>
-    <t>9840044452</t>
-  </si>
-  <si>
-    <t>9840020987</t>
-  </si>
-  <si>
-    <t>9840004756</t>
-  </si>
-  <si>
-    <t>9840007874</t>
-  </si>
-  <si>
-    <t>9840095170</t>
-  </si>
-  <si>
-    <t>9840071341</t>
-  </si>
-  <si>
-    <t>9840086849</t>
-  </si>
-  <si>
-    <t>9840021753</t>
-  </si>
-  <si>
-    <t>9840059614</t>
-  </si>
-  <si>
-    <t>9840068297</t>
+    <t>9840081789</t>
+  </si>
+  <si>
+    <t>9840066933</t>
+  </si>
+  <si>
+    <t>9840042919</t>
+  </si>
+  <si>
+    <t>9840091302</t>
+  </si>
+  <si>
+    <t>9840053395</t>
+  </si>
+  <si>
+    <t>9840056211</t>
+  </si>
+  <si>
+    <t>9840083562</t>
+  </si>
+  <si>
+    <t>9840030504</t>
+  </si>
+  <si>
+    <t>9840052334</t>
+  </si>
+  <si>
+    <t>9840069220</t>
+  </si>
+  <si>
+    <t>9840011507</t>
+  </si>
+  <si>
+    <t>9840076159</t>
+  </si>
+  <si>
+    <t>9840015730</t>
+  </si>
+  <si>
+    <t>9840003698</t>
+  </si>
+  <si>
+    <t>9840018003</t>
+  </si>
+  <si>
+    <t>9840016266</t>
   </si>
 </sst>
 </file>
@@ -637,46 +655,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="36.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7109375"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="17" max="17" customWidth="true" width="10.54296875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="20" max="20" customWidth="true" width="10.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="23" max="23" customWidth="true" width="10.54296875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="27" max="27" customWidth="true" width="17.81640625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="23.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="17" max="17" customWidth="true" width="10.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="20" max="20" customWidth="true" width="10.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="23" max="23" customWidth="true" width="10.5703125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="27" max="27" customWidth="true" width="17.85546875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.28515625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -762,13 +780,13 @@
         <v>33</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="AE1" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AF1" t="s" s="0">
         <v>20</v>
@@ -777,7 +795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -785,7 +803,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>13</v>
@@ -794,13 +812,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>10</v>
@@ -812,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="0">
         <v>18</v>
@@ -824,7 +842,7 @@
         <v>18</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q2" t="s" s="0">
         <v>35</v>
@@ -833,7 +851,7 @@
         <v>18</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s" s="0">
         <v>36</v>
@@ -842,7 +860,7 @@
         <v>18</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s" s="0">
         <v>37</v>
@@ -851,28 +869,28 @@
         <v>18</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AC2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="AE2" s="4">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -880,7 +898,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>13</v>
@@ -889,13 +907,13 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>10</v>
@@ -907,20 +925,20 @@
         <v>14</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE3" s="4"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -928,7 +946,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>13</v>
@@ -937,13 +955,13 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>10</v>
@@ -955,20 +973,20 @@
         <v>14</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE4" s="4"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -976,7 +994,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>13</v>
@@ -985,13 +1003,13 @@
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>10</v>
@@ -1003,20 +1021,20 @@
         <v>14</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1024,7 +1042,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>13</v>
@@ -1033,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>10</v>
@@ -1051,20 +1069,20 @@
         <v>14</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE6" s="4"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +1090,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>13</v>
@@ -1081,13 +1099,13 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>10</v>
@@ -1099,20 +1117,20 @@
         <v>14</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE7" s="4"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1120,7 +1138,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>13</v>
@@ -1129,13 +1147,13 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>10</v>
@@ -1147,20 +1165,20 @@
         <v>14</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE8" s="4"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1168,7 +1186,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>13</v>
@@ -1177,13 +1195,13 @@
         <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>10</v>
@@ -1195,20 +1213,20 @@
         <v>14</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1216,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>13</v>
@@ -1225,13 +1243,13 @@
         <v>17</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>10</v>
@@ -1243,16 +1261,16 @@
         <v>14</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD10" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="AE10" s="4"/>
     </row>

--- a/testData/WebForm/TC001_WF_RRUserY_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC001_WF_RRUserY_NoCondition_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="77">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -210,103 +210,46 @@
     <t>WebFormId</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>9840020987</t>
-  </si>
-  <si>
-    <t>9840004756</t>
-  </si>
-  <si>
-    <t>9840007874</t>
-  </si>
-  <si>
-    <t>9840095170</t>
-  </si>
-  <si>
-    <t>9840071341</t>
-  </si>
-  <si>
-    <t>9840086849</t>
-  </si>
-  <si>
-    <t>9840021753</t>
-  </si>
-  <si>
-    <t>9840059614</t>
-  </si>
-  <si>
-    <t>9840068297</t>
-  </si>
-  <si>
     <t>TC001_WF_RRUserY_NoCondition_Test</t>
   </si>
   <si>
-    <t>9840000400</t>
+    <t>9840052334</t>
+  </si>
+  <si>
+    <t>9840076159</t>
+  </si>
+  <si>
+    <t>9840015730</t>
+  </si>
+  <si>
+    <t>9840003698</t>
+  </si>
+  <si>
+    <t>9840018003</t>
+  </si>
+  <si>
+    <t>9840016266</t>
+  </si>
+  <si>
+    <t>9840075644</t>
+  </si>
+  <si>
+    <t>9840053461</t>
+  </si>
+  <si>
+    <t>9840079974</t>
+  </si>
+  <si>
+    <t>9840077408</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>9840022021</t>
+    <t>9840034768</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>9840022756</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9840081789</t>
-  </si>
-  <si>
-    <t>9840066933</t>
-  </si>
-  <si>
-    <t>9840042919</t>
-  </si>
-  <si>
-    <t>9840091302</t>
-  </si>
-  <si>
-    <t>9840053395</t>
-  </si>
-  <si>
-    <t>9840056211</t>
-  </si>
-  <si>
-    <t>9840083562</t>
-  </si>
-  <si>
-    <t>9840030504</t>
-  </si>
-  <si>
-    <t>9840052334</t>
-  </si>
-  <si>
-    <t>9840069220</t>
-  </si>
-  <si>
-    <t>9840011507</t>
-  </si>
-  <si>
-    <t>9840076159</t>
-  </si>
-  <si>
-    <t>9840015730</t>
-  </si>
-  <si>
-    <t>9840003698</t>
-  </si>
-  <si>
-    <t>9840018003</t>
-  </si>
-  <si>
-    <t>9840016266</t>
   </si>
 </sst>
 </file>
@@ -655,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>13</v>
@@ -812,7 +755,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -872,7 +815,7 @@
         <v>56</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="0">
         <v>32</v>
@@ -898,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>13</v>
@@ -907,7 +850,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -928,7 +871,7 @@
         <v>48</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="AC3" s="4" t="s">
         <v>54</v>
@@ -946,7 +889,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>13</v>
@@ -955,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -976,7 +919,7 @@
         <v>49</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>54</v>
@@ -994,7 +937,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>13</v>
@@ -1003,7 +946,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1024,7 +967,7 @@
         <v>50</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="AC5" s="4" t="s">
         <v>54</v>
@@ -1042,7 +985,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>13</v>
@@ -1051,7 +994,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1072,7 +1015,7 @@
         <v>51</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="4" t="s">
         <v>54</v>
@@ -1090,7 +1033,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>13</v>
@@ -1099,7 +1042,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1120,7 +1063,7 @@
         <v>47</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="AC7" s="4" t="s">
         <v>54</v>
@@ -1138,7 +1081,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>13</v>
@@ -1147,7 +1090,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1168,7 +1111,7 @@
         <v>48</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="AC8" s="4" t="s">
         <v>54</v>
@@ -1186,7 +1129,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>13</v>
@@ -1195,7 +1138,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1216,7 +1159,7 @@
         <v>49</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="AC9" s="4" t="s">
         <v>54</v>
@@ -1234,7 +1177,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>13</v>
@@ -1243,7 +1186,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1264,7 +1207,7 @@
         <v>50</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="AC10" s="4" t="s">
         <v>54</v>
